--- a/PythonPracticeGame/asked_questions.xlsx
+++ b/PythonPracticeGame/asked_questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,520 +444,2440 @@
           <t>Answer</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>explanation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>To set the index of timeseries df frequency to months</t>
+          <t xml:space="preserve">Create a histogram plot of the 'data'  on the axes . Set the number of bins to 30 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>df.index.freq='MS'</t>
+          <t>ax.hist(data,bins=30)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Plots a histogram with a specified number of bins.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Create a histogram plot of the 'data'  on the axes . Set the number of bins to 30 </t>
+          <t>Create a pivot table with a df with row as R, columns as C, values as V and taking 'mean' as the aggregated function. Show the totals</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ax.hist(data,bins=30)</t>
+          <t>pd.pivot_table(df,index='R',columns='C',values='V',aggfunc='mean',margins=True)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Creates a pivot table with specified aggregation and margins.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Create a pivot table with a df with row as R, columns as C, values as V and taking 'mean' as the aggregated function. Show the totals</t>
+          <t>Get the unique count of values in every column of a dataframe</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>df.pivot_table(index='R',columns='C',values='V',aggfunc='mean',margins=True)</t>
+          <t>df.nunique()</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Returns the number of unique values in each column of DataFrame df.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Get the unique count of values in every column of a dataframe</t>
+          <t>You have a df with columns 'A', 'B','C', rename all of them as 'D','E','F'</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>df.nunique()</t>
+          <t>df.columns=['D','E','F']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Renames the columns of the DataFrame to 'D', 'E', and 'F' respectively.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>You have a df with columns 'A', 'B','C', rename all of them as 'D','E','F'</t>
+          <t>Generate a list mylist of 100 numbers which starts with a and is like a1, a2 a3 etc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>df.columns=['D','E','F']</t>
+          <t>['a'+str(x) for x in the range(1,100)]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Generates a list of strings by appending numbers from 1 to 99 to the string 'a'.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Generate a list mylist of 100 numbers which starts with a and is like a1, a2 a3 etc</t>
+          <t>Given columns of as [1,2,3], change it to [1,3,2], use reindex method</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['a'+str(x) for x in the range(1,100)]</t>
+          <t>df.reindex([1,3,2],axis=1)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Reindexes columns of DataFrame df according to the provided list of labels.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Given columns of as [1,2,3], change it to [1,3,2], use reindex method</t>
+          <t>Get the last letter of a word</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>df.reindex([1,3,2],axis=1)</t>
+          <t>word[-1]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retrieves the last character of the string word.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Get the last letter of a word</t>
+          <t>Given a dictionary mydict={'a':1,'b':2}, get the length of the dictionary</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>word[-1]</t>
+          <t>len(mydict)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Returns the number of key</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Given a dictionary mydict={'a':1,'b':2}, get the length of the dictionary</t>
+          <t>Get the names of all columns</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>len(mydict)</t>
+          <t>df.columns</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Retrieves the column names of the DataFrame df as an Index object.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Get the names of all columns</t>
+          <t>True for Empty DataFrame</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>df.columns</t>
+          <t>df.empty</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if DataFrame df is empty.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>True for Empty DataFrame</t>
+          <t>Crate a dataframe with 4 rows and 8 columns passing random values . Non Numeric column names are  a, b, c,d,e,f,g,h</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>df.empty</t>
+          <t>pd.DataFrame(data=np.random.rand(4,8),columns=list('abcdefgh'))</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Creates a DataFrame filled with random values organized in 4 rows and 8 columns with column labels 'a' to 'h'.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Crate a dataframe with 4 rows and 8 columns passing random values . Non Numeric column names are  a, b, c,d,e,f,g,h</t>
+          <t>create a dataframe from a dictionary of list dict--&gt; {x:[1,2],y:[3,4],z:[5,6]}</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pd.DataFrame(np.random.rand(4,8),columns=list('abcdefgh'))</t>
+          <t>pd.DataFrame(dict)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Creates a DataFrame from a Python dictionary where keys become column names and values become the data in the DataFrame.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>create a dataframe from a dictionary of list dict--&gt; {x:[1,2],y:[3,4],z:[5,6]}</t>
+          <t>date= "2023-01-01" in the datetime format. You want to find the date after 29 days.How do you get in pandas</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pd.DataFrame(dict)</t>
+          <t>date+pd.DateOffset(29,'D')</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Adds 29 days to the date object using pandas' DateOffset.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>date= "2023-01-01" in the datetime format. You want to find the date after 29 days.How do you get in pandas</t>
+          <t>Replace all the occurance of 'a' in a column 'A' by 'b', in place.Similar to ctrl+h</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>date+pd.DateOffset(days=29)</t>
+          <t>df['A'].replace('a','b',inplace=True)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Replaces all occurrences of 'a' with 'b' in column 'A' of DataFrame df in place.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Replace all the occurance of 'a' in a column 'A' by 'b', in place.Similar to ctrl+h</t>
+          <t>Find the datatype of a column A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>df['A'].replace('a','b',inplace=True)</t>
+          <t>df['A'].dtype</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retrieves the data type of column 'A' in the DataFrame `df`.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Find the datatype of a column A</t>
+          <t>Select all columns excluding number datatypes</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>df['A'].dtype</t>
+          <t>df.select_dtypes(exclude='number')</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Selects columns of the DataFrame `df` that do not have a numeric data type.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Select all columns excluding number datatypes</t>
+          <t>Show the pandas installed version</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>df.select_dtypes(exclude='number')</t>
+          <t>pd.__version__</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retrieves the version number of the pandas library.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Show the pandas installed version</t>
+          <t>Create a multi index using columns A and B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pd.__version__</t>
+          <t>df.set_index(['A','B'])</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sets the name of the DataFrame's index to 'a'.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Create a multi index using columns A and B</t>
+          <t>Convert a datetime to format dd-mm-yy from a datetime series s</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>df.set_index(['A','B'])</t>
+          <t>s.dt.strftime('%d-%m-%Y')</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Formats the dates in Series s as strings in the 'dd-mm-YYYY' format.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Convert a datetime to format dd-mm-yy from a datetime series s</t>
+          <t>Find the number of missing values in each column of df</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>s.dt.strftime('%d-%m-%Y')</t>
+          <t>df.isnull().sum()</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Calculates the number of missing values in each column of the DataFrame `df`.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Find the number of missing values in each column of df</t>
+          <t>Sorts values in a dataframe by a column A, in descending order</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>df.isnull().sum()</t>
+          <t>df.sort_values('A',ascending=False)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sorts the DataFrame `df` based on the values in column 'A' in descending order.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sorts values in a dataframe by a column A, in descending order</t>
+          <t>Indicates whether the date is first day of the month from a datetime series s</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>df.sort_values('A',ascending=False)</t>
+          <t>s.dt.is_month_start</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if the dates in Series s correspond to the start of a month.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Indicates whether the date is first day of the month from a datetime series s</t>
+          <t>How can you adjust the rows of a pandas DataFrame df to match a comprehensive date range provided by the list or series complete_date_range?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>s.dt.is_month_start</t>
+          <t>df.reindex(complete_date_range)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Reindexes the DataFrame `df` using the `complete_date_range`, filling in any missing dates in the DataFrame's index.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>How can you adjust the rows of a pandas DataFrame df to match a comprehensive date range provided by the list or series complete_date_range?</t>
+          <t>Indicates whether the date is last day of the year from a datetime series s</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>df.reindex(complete_date_range)</t>
+          <t>s.dt.is_year_end</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if the dates in Series s correspond to the end of a year.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Indicates whether the date is last day of the year from a datetime series s</t>
+          <t>How can you rename the columns of a pandas DataFrame df to 'D', 'E', and 'F' respectively?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>s.dt.is_year_end</t>
+          <t>df.columns=['D','E','F']</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Renames the columns of the DataFrame to 'D', 'E', and 'F' respectively.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>How can you rename the columns of a pandas DataFrame df to 'D', 'E', and 'F' respectively?</t>
+          <t xml:space="preserve">to drop columns labeled A and B </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>df.columns=['D','E','F']</t>
+          <t>df.drop(['A','B'],axis=1)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Drops columns 'A' and 'B' from DataFrame df.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">to drop columns labeled A and B </t>
+          <t>Write 5 days as timedelta object</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>df.drop(['A','B'],axis=1)</t>
+          <t>pd.to_timedelta(5,'D')</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Converts the number 5 to a pandas timedelta of 5 days.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>To subtract 30 days from a date column A</t>
+          <t>How can you create a daily date range that spans from the earliest to the latest date in the index of a pandas DataFrame df?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>df['A']-pd.Timedelta('30 d')</t>
+          <t>pd.date_range(start=df.index.min(),end=df.index.max(),freq='1D')</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Generates a daily range of dates from the earliest to the latest date in the DataFrame's index.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Write 5 days as timedelta object</t>
+          <t>Save df to dictionary</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pd.to_timedelta(5,'D')</t>
+          <t>df.to_dict()</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Converts the DataFrame df to a dictionary format.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>How can you create a daily date range that spans from the earliest to the latest date in the index of a pandas DataFrame df?</t>
+          <t>plot the column A and column B on the ax axes object  and set the label of the line to "data"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pd.date_range(start=df.index.min(),end=df.index.max(),freq='D')</t>
+          <t>ax.plot(df['A'],df['B'],label='data')</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Plots the data from columns 'A' and 'B' of the DataFrame df on the plot represented by the ax object, with a label 'data'.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Save df to dictionary</t>
+          <t>How to get the nth row - use loc</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>df.to_dict()</t>
+          <t>df.loc[n-1,:]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Selects the row at index n-1 and all columns of the DataFrame df using label-based indexing.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>plot the column A and column B on the ax axes object  and set the label of the line to "data"</t>
+          <t>Generate one random float from 0 to 1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ax.plot(df['A'],df['B'],label='data')</t>
+          <t>np.random.rand()</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Generates a random float between 0 (inclusive) and 1 (exclusive) from a uniform distribution.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>How to get the nth row - use loc</t>
+          <t>Check if the word ends with a particular string 'val'</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>df.loc[n-1,:]</t>
+          <t>word.endswith('val')</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if the string 'word' ends with the substring 'val' and returns a Boolean result.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Generate one random float from 0 to 1</t>
+          <t>to convert the index back into the column, done inplace</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>np.random.rand()</t>
+          <t>df.reset_index(level=0,inplace=True)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if the label 'a' exists in the DataFrame's index.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Check if the word ends with a particular string 'val'</t>
+          <t>To get the set of all the column labels which are in df1 but not in df2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>word.endswith('val')</t>
+          <t>df1.columns.difference(df2.columns)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Returns the set difference of column names between DataFrames df1 and df2.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>to convert the index back into the column, done inplace</t>
+          <t>Load a dataframe from excel file</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>df.reset_index(level=0,inplace=True)</t>
+          <t>pd.read_excel('file.xlsx')</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Reads an Excel file named 'file.xlsx' into a pandas DataFrame.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>To get the set of all the column labels which are in df1 but not in df2</t>
+          <t>Shade the area between y=4 and y=6 with a gray color and alpha=0.5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>df1.columns.difference(df2.columns)</t>
+          <t>ax.axhspan(ymin=4,ymax=6,color='gray',alpha=0.5)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Adds a horizontal shaded region to the plot represented by the `ax` object, spanning from y-value 4 to 6, with a gray color and 50% transparency.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Load a dataframe from excel file</t>
+          <t>Find the index of the rows where the value of a column meets a certain criteria, eg. &gt;35</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pd.read_excel('file.xlsx')</t>
+          <t>df.loc[df['column_name'] &gt; 35,:].index</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Returns the index labels of rows in DataFrame df where values in 'column_name' are greater than 35.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Using pandas, what method would you use to lag or lead the values in a DataFrame df by n periods?</t>
+          <t>Show top left corner with n rows and columns</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>df.shift(n)</t>
+          <t>df.iloc[:n,:n]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Selects the first `n` rows and `n` columns of the DataFrame `df` using integer-location based indexing.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Shade the area between y=4 and y=6 with a gray color and alpha=0.5</t>
+          <t>Get the absolute values in a dataframe (Or a column)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ax.axhspan(ymin=4,ymax=6,color='gray',alpha=0.5)</t>
+          <t>df.abs()</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Computes the absolute value for each element in the DataFrame df.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Find the index of the rows where the value of a column meets a certain criteria, eg. &gt;35</t>
+          <t>Get all the rows of col A and B , use loc</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>np.argwhere(df['A'].to_numpy()&gt;35)</t>
+          <t>df.loc[:,['A','B']]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Selects all rows and only the columns 'A' and 'B' from the DataFrame df using label-based indexing.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Show top left corner with n rows and columns</t>
+          <t>Given a list mylist[1,2,1], count the number of times 1 appears</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>df.iloc[:n,:n]</t>
+          <t>mylist.count(1)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Counts the number of occurrences of the value 1 in 'mylist'.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Get the absolute values in a dataframe (Or a column)</t>
+          <t xml:space="preserve">To flat a multi index </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>df.abs()</t>
+          <t>df.unstack()</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Unstacks a multi-level index DataFrame `df` by pivoting the innermost level to columns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Convert a date-like column 'A' to datetime with the format dd-mm-yy</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>pd.to_datetime(df['A'],format='%d-%m-%Y')</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Converts the values in column 'A' of DataFrame 'df' to datetime objects using the specified format.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>How to convert a list mylist to an np array</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>np.array(mylist)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Converts a Python list mylist into a NumPy array.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>To get the second from a datetime series s</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>s.dt.second</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Extracts the second component from a Series s containing datetime values.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>print a date 2023-01-01 without time</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>datetime(2023, 1, 1).date()</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Creates a date object representing January 1, 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Given a dictionary mydict={'a':1,'b':2}, print all values in this dictionary in one line, use x as variable</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[print(x) for x in mydict.values()]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prints all values in the dictionary mydict.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Create a figure with two subplots, where the size of the subplots is set to be 6 inches wide and 3 inches tall:</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>fig,axs=plt.subplots(1,2,figsize=(6,3))</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sets up a figure with subplots.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>To get the set of all the row labels common to two dfs df1 and df2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>df1.index.intersection(df2.index)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Returns the intersection of index labels between DataFrames df1 and df2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Add a grid to the plot</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ax.grid()</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Displays gridlines on the plot ('ax').</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Convert continuous datacolumn A into categorical Data columns with three categories c1,c2,c3., with c1:0 to 25, c2: 26 to 50, c3 51 to 99</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>pd.cut(df['A'],bins=[0,25,50,99],labels=['c1','c2','c3'])</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Categorizes values in a specific column ('A') into specified bins and assigns labels based on the bin intervals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Shows the counts of each value in the df column as a horizontal bar plot- use sns</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>sns.countplot(data=df,y='A')</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Plots a count plot of the data in column 'A' of the DataFrame `df` using Seaborn's `countplot` function, with 'A' values on the y-axis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Take out the rows from a df if the column 'A' values  are between 4000 to 10000</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>df.query('4000&lt;A&lt;10000')</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Filters the DataFrame `df` to keep only the rows where the value in column 'A' is between 4000 and 10000 (exclusive).</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Read a file called file.csv assuming 1st column as index</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>pd.read_csv('file.csv',index_col=0)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Reads a CSV file and sets the first column as the index of the resulting DataFrame.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Filter a df by multiple categories a, b, c not present in a particular column A</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>df.loc[~df['A'].isin(['a','b','c'])]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Selects rows from the DataFrame `df` where the values in column 'A' are not among 'a', 'b', or 'c'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Find the smallest 5 values in a df column</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>df['A'].nsmallest(5)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Retrieves the 5 smallest values from column 'A' of the DataFrame `df`.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Indicates whether the date is first day of the quarter from a datetime series s</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>s.dt.is_quarter_start</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if the dates in Series s correspond to the start of a quarter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Convert a list (mylist) to df column A</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>pd.DataFrame(data=mylist,columns=['A'])</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Creates a DataFrame with data from 'mylist' and assigns column labels 'A'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Set the title of the plot to "Title" on the axes object.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ax.set_title('Title')</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sets the title of the plot represented by the `ax` object to 'Title'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>If you have a pandas DataFrame df with a DatetimeIndex, how can you extract the month values from the index?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>df.index.month</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Retrieves the month component of the DataFrame's index, assuming the index is of datetime type.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>To draw a bivariate gradient outline type of plot between two numerical columns A and B</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>sns.displot(data=df,x='A',y='B',kind='kde')</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Plots a kernel density estimation (KDE) of the data in columns 'A' and 'B' of the DataFrame `df` using Seaborn's `displot` function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>How to get the first row ( index start from 0 onwards)- use loc</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>df.loc[0,:]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Selects the first row and all columns of the DataFrame df using label-based indexing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Using pandas, how can you add one day to a given date?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>date+pd.DateOffset(1,'D')</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Adds one day to the given `date` using the `pd.DateOffset` function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Create a multi index using default index and a column A</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>df.set_index([df.index,'A'])</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Resets the DataFrame's index while retaining the first level of a multiindex, and modifies the DataFrame in place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Selecting Columns A and B with loc</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>df.loc[:,['A','B']]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Selects all rows and only the columns 'A' and 'B' from the DataFrame `df` using label-based indexing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>How to add a list A at the 4th position of a df as a column with the same name</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>df.insert(loc=3,column='A',value=A)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Creates a date object representing January 1, 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>return an array of size (3,5) out of elements 3,5,7,9</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>np.random.choice([3,5,7,9],size=(3,5))</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Randomly selects numbers from the list [3,5,7,9] to form a 3x5 numpy array.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Create an outline histogram ( kde) using sns of a df column A</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sns.displot(data=df,x='A',kind='kde')</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Generates a KDE plot without color variations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>You are given these bins =[0,25,50,75,100], divide a column 'A' into these bins and get the frequency count of each bin</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>df.groupby(pd.cut(df['A'],bins=bins)).size()</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>This command bins the values in column 'A' of the DataFrame df into discrete intervals specified by bins, groups the DataFrame by these binned values, and then counts the number of values in each bin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Align dfl and dfr on the index to get the dfs adfl and adfr</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>adfl,adfr=dfl.align(dfr)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aligns two DataFrames ('dfl' and 'dfr') by their indexes and returns aligned DataFrames.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Resample a timeseries df with daily data to give you count of the column A monthwise</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>df.resample(on='A',freq='M').count()</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Resamples the DataFrame df based on the column 'A' at a monthly frequency and counts the number of entries in each group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divide a df numeric column into three equal parts ( Quartiles). </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>pd.qcut(df['A'],q=3)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Discretizes the column 'A' of the DataFrame `df` into 3 equal-sized bins based on quantiles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Select only the numeric column of a dataframe</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>df.select_dtypes(include='number')</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Selects columns of the DataFrame `df` that have a numeric data type.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Get the first 4 characters of a text column</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>df['A'].str[:4]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Applies string slicing to extract the first four characters from each element in column 'A' of DataFrame 'df'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>print a dataframe without trunctation of rows ( large dataframe)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>print(df.to_string())</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prints the entire DataFrame df as a string, useful for displaying large DataFrames.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Given a dictionary mydict={'a':1,'b':2}, add c=3</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>mydict['c']=3</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adds a new key</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Returns the column label at nth position</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>df.columns[n-1]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retrieves the name of the nth column in DataFrame df.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Given a list mylist[1,2,3], Reverse the order of list items</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>mylist.reverse()</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Reverses the order of elements in 'mylist'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>create a df from a list of lists with column names--&gt; data = [[1, 4], [2, 5], [3, 6]];columns = ['A', 'B']</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>pd.DataFrame(data=data,columns=columns)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Creates a DataFrame from 2D data (like a list of lists) and assigns column names.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Given a dictionary mydict={'a':1,'b':2}, empty this dictionary</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>mydict.clear()</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clears all key-value pairs from mydict.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>There are 3 dfs df1, df2, df3, all have the same types, names and number of columns. You need to combine them from top to bottom</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>pd.concat([df1,df2,df3])</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Concatenates the DataFrames `df1`, `df2`, and `df3` vertically (along rows).</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>count the occurrence of 'u' in a word</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>word.count('u')</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Counts the occurrences of a specific character ('u') in a string.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Dropping Columns A, B from df</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>df.drop(['A','B'],axis=1)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Drops columns 'A' and 'B' from the DataFrame `df`.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Resample a timeseries df with daily data to give you mean of the column A monthwise</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>df.resample(on='A',freq='M').mean()</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Resamples the DataFrame df based on the column 'A' at a monthly frequency and computes the mean of each group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Write a zipped csv file called file</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>df.to_csv('file.csv.zip')</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Explanation not found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Given a list mylist[1,2,3], add an item 4 to it</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>mylist.append(4)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Appends the value 4 to the end of the list 'mylist'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Format the number pi using 2e notation</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>f"{pi:.2e}"</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Formats the value of variable pi as a string in scientific notation rounded to two decimal places.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Format the number pi to 2 places of decimals</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>f"{pi:.2f}"</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Formats the value of variable pi as a string rounded to two decimal places.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Read a file called file.csv, recognize NA and NAN as the unknown values</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>pd.read_csv('file.csv',na_values=['NA','NAN'])</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Reads a CSV file and treats 'NA' and 'NAN' as NaN (missing) values in the resulting DataFrame.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>How to split a text column A containing value eg. ab_c on underscore_</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>df['A'].str.split('_')</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Splits the string values in column 'A' of the DataFrame df at each underscore ('_') and returns a list of substrings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Using pandas, what method would you use to  lead the values in a DataFrame df by n periods?</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>df.shift(n)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Shifts the values of the DataFrame by 'n' positions; positive 'n' shifts down, negative 'n' shifts up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">to drop rows labeled A and B </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>df.drop(['A','B'])</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Drops rows from DataFrame df with labels 'A' and 'B'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Find if the values in a seris s contains lowercase characters from a to q</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>s.str.contains(r'[a-q]')</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if each element in Series s contains any lowercase letter from 'a' to 'q'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Returns the datatype of column labels</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>df.columns.dtype</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retrieves the data type of the column names of DataFrame df.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Write a Python code snippet to plot the x array against itself on the ax axes object  and set the label of the line to "linear"</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ax.plot(x,x,label='linear')</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Plots a line on the `ax` object with `x` values on both the x-axis and y-axis, and labels the line as 'linear'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>How to get the number of rows</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>df.shape[0]</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Returns the number of rows in the DataFrame df.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>To draw a bivariate plot between two numerical columns A and B</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>sns.displot(data=df,x='A',y='B')</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Plots a distribution plot of the data in columns 'A' and 'B' of the DataFrame `df` using Seaborn's `displot` function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Create a dictionary with a=1, b=2 and c=3</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>dict(a=1,b=2,c=3)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Creates a dictionary 'mydict' with specified key</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Given a dictionary mydict={'a':1,'b':2}, get the value of a, use 'get'</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>mydict.get('a')</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retrieves the value associated with key 'a' in 'mydict' using the .get() method.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Select rows 2,3,5 and columns 0,3,5</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>df.iloc[[2,3,5],[0,3,5]]</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Selects specific rows with positions 2, 3, and 5, and columns at positions 0, 3, and 5 from the DataFrame `df` using integer-location based indexing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>to remove first n rows of a given DataFrame.</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>df.iloc[n:,:]</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adds the prefix 'a_' to all column names in DataFrame 'df'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Given a dictionary mydict={'a':1,'b':2}, change b to 3, use update method</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>mydict.update({'b':3})</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Updates the dictionary mydict with the key-value pair {'b': 3}.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You have A, B, C, D, E; You want to find the column list other than A, B, How to do that </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>df.columns.difference(['A','B'])</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Returns the columns in DataFrame df that are not in the list ['A', 'B'].</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>remove infinite values from a given DataFrame., replace by NaN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>df.replace([np.inf,-np.inf],np.nan)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Returns the index location of the column 'A' in the DataFrame's columns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>How to make a df wide to long, you don’t' want to change column A and B, melt all rest of columns as a single column called 'C' and call the columns of corresponding values as D</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>pd.melt(df,id_vars=['A','B'],var_name='C',value_name='D')</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Reshapes the DataFrame df from wide to long format. It keeps columns 'A' and 'B' as identifier variables, and the column names become values in a new column 'C' while the corresponding values go into column 'D'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Format the number pi left aligned and padded to 5 places</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>f"{pi:&lt;5}"</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Formats the value of variable `pi` as a string left-aligned within a width of 5 characters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Generate an array of 5 Normal random Numbers</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>np.random.randn(5)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Generates an array of 5 random numbers sampled from a standard normal (Gaussian) distribution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>s1 and s2 are two series with the same length, concat their elements with - separator</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>s1.str.cat(s2,sep='-')</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Concatenates elements of two Series s1 and s2 using a hyphen as a separator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Find if the values in a seris s contains uppercase characters from a to q</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>s.str.contains(r'[A-Q]')</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if each element in Series s contains any uppercase letter from 'A' to 'Q'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Create a bar plot of x and y values on the axes</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ax.bar(x,y)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Plots a bar chart with specified x and y values on a given axis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Select all rows from the last n rows till end</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>df.iloc[-n:,:]</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Selects the last 'n' rows in DataFrame 'df'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Create a random word of 5 uppercase characters - use library 'string'</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>'.join(random.choices(string.ascii_uppercase,k=5))</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Generates a random string of 5 uppercase letters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Find the largest 5 values in a df column</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>df['A'].nlargest(5)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Retrieves the 5 largest values from column 'A' of the DataFrame `df`.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Find if the values in a series s that indicates if a has occurred exactlly 3 times</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>s.str.contains(r'a{3}')</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if each element in Series s contains 'a' repeated exactly three times.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Change the value at row 'r' and column A to 11.5</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>df.loc['r','A']=11.5</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sets the maximum number of rows displayed when printing DataFrames to 500.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Using pandas, how do you generate a series of dates starting from a given start date and ending at an end date, with a frequency of one day?</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>pd.date_range(start=start,end=end,freq='1D')</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Generates a daily range of dates between the start and end dates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Resample a timeseries df to every other minute, by giving the sum</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>df.resample('2min').sum()</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Resamples the DataFrame df at a 2-minute frequency and computes the sum for each time bin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, outer  join on key will  give you these cols (Answer like AB)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ABCDEF</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Explanation not found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>To check if any row has all NA values ( one single value for each row)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>df.isna().all(axis=1)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if all values in each row of DataFrame df are missing (NaN).</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Find those rows where the values of a particular column are duplicated</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>df.loc[df['A'].duplicated()]</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Selects rows from the DataFrame `df` where values in column 'A' are duplicated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>create a df from two series s1 and s2, Suppose you want to call them A and B</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>pd.DataFrame({'A':s1,'B':s2})</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Creates a DataFrame from two Pandas Series 's1' and 's2' with specified column names.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Rank the index of the rows of a Dataframe column A in ascending order or the values</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>df['A'].argsort()</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Returns the indices that would sort the values in column 'A' in ascending order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Save the df to pickle</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>df.to_pickle('file.pkl')</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Serializes and saves DataFrame 'df' to a binary file 'file.pkl' using pickle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>To check which values of a df are NA and which are not</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>df.isna()</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Creates a DataFrame of the same shape as df, with True for missing (NaN) values and False for non-missing values.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Draw a scatter plot and linear regression line for a df with numeric columns A and B, Split the lines on the basis of column C</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>sns.lmplot(data=df,x='A',y='B',hue='C')</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Plots a linear regression between 'A' and 'B' in the DataFrame `df` using Seaborn's `lmplot` function, with color differentiation based on 'C'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Find if the values in a series s has either charcters a or b</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>s.str.contains(r'a|b')</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if each element in Series s contains either 'a' or 'b'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Drops the rows which contain null values</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>df.dropna()</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Drops rows with missing values (NaNs) from the DataFrame `df`.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>To get the percent change from the nth value of a column in a timerseries df</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>df['A'].pct_change(periods=n)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Computes the percentage change between the current value and a prior value in column 'A' of the DataFrame `df` with a lag of `n` periods.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Given a list mylist[1,2,3], sort this list in the descending order</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>mylist.sort(reverse=True)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sorts the elements of 'mylist' in descending order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Draw a scatter plot and linear regression line for a df with numeric columns A and B</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>sns.lmplot(data=df,x='A',y='B')</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Plots a linear regression between 'A' and 'B' in the DataFrame `df` using Seaborn's `lmplot` function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>To quickly check if the entire dataframe has any valid value(notna) ( one single true or false value)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>df.notna().any().any()</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if there are any non-missing values in DataFrame df.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>split the name and extension in the file called myfile, let the two names be called a and b</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>a,b=os.path.splitext(myfile)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Splits a filename 'myfile' into its base name and extension and assigns them to 'a' and 'b', respectively.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Indicates whether the date is first day of the year from a datetime series s</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>s.dt.is_year_start</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checks if the dates in Series s correspond to the start of a year.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Divide a df numeric column into three equal parts ( Quartiles) , label these parts as a,b,c</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>pd.qcut(df['A'],q=3,labels=['a','b','c'])</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Discretizes the column 'A' of the DataFrame df into 3 equal-sized bins based on quantiles, with custom labels 'a', 'b', and 'c'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Get the rows with NA values</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>df.loc[df.isna().any(axis=1)]</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Selects rows in DataFrame df where there are any missing (NaN) values.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>We have a folder with a path called path and inside the path there is another folder called folder, join the two</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>os.path.join(path,folder)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Joins a folder name 'folder' to a base path 'path' using the appropriate file separator for the operating system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Create a cross tabulation of the Percentage over columns of two columns A and B</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>pd.crosstab(df['A'],df['B'],normalize='columns')</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Creates a normalized cross-tabulation table by columns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Counts the number of Non Blank Values in Rows of a df</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>df.count()</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Counts non-null values in each column of a DataFrame.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Read the clipborard</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>pd.read_clipboard()</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Reads data from the system clipboard into a pandas DataFrame.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>To get the quarter of the date from a datetime series s</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>s.dt.quarter</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Extracts the quarter of the year from a Series s containing datetime values.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Find the Total number of elements in  a column A</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>df['A'].size</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Returns the number of elements in column 'A' of the DataFrame `df`.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Read a file called file.csv, parse column A as date column[Can present as a list]</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>pd.read_csv('file.csv',parse_dates=['A'])</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Reads a CSV file and interprets column 'A' as datetime, converting it to a datetime data type.</t>
         </is>
       </c>
     </row>
